--- a/biology/Zoologie/Chthonius/Chthonius.xlsx
+++ b/biology/Zoologie/Chthonius/Chthonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chthonius est un genre de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Afrique du Nord, au Moyen-Orient, en Asie centrale et en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Afrique du Nord, au Moyen-Orient, en Asie centrale et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Chthonius absoloni Beier, 1938
 Chthonius agazzii Beier, 1966
 Chthonius alpicola Beier, 1951
@@ -699,10 +715,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-genres Ephippiochthonius, Globochthonius et Hesperochthonius, ont été élevés au rang de genre par Zaragoza en 2017[2]. Il décrit un groupe de genres composé de Spelyngochthonius, Microchthonius, Cantabrochthonius, Hesperochthonius, Neochthonius, Ephippiochthonius, Occidenchthonius, Globochthonius et Chthonius.
-Chthonius karamanianus  a été placée dans le genre Zaragozachthonius par Gardini en 2020[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-genres Ephippiochthonius, Globochthonius et Hesperochthonius, ont été élevés au rang de genre par Zaragoza en 2017. Il décrit un groupe de genres composé de Spelyngochthonius, Microchthonius, Cantabrochthonius, Hesperochthonius, Neochthonius, Ephippiochthonius, Occidenchthonius, Globochthonius et Chthonius.
+Chthonius karamanianus  a été placée dans le genre Zaragozachthonius par Gardini en 2020.
 </t>
         </is>
       </c>
@@ -731,7 +749,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1843 : Die Arachniden. Getreu nach der Natur abgebildet und beschrieben. C. H. Zeh'schen Buchhandlung, Nürnberg, vol. 10, p. 37-142 (texte intégral).</t>
         </is>
